--- a/tests/test_results.xlsx
+++ b/tests/test_results.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SAG\SAG\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\STUDIA\SAG\Projekt\SAG\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC00CBFE-86DE-4822-9ED8-FF2730F846B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242BFA68-54CD-4A01-9356-D8634BE29523}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10060" yWindow="4930" windowWidth="23210" windowHeight="10490" xr2:uid="{D93C3C00-BB39-432A-B270-60FF368C042F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D93C3C00-BB39-432A-B270-60FF368C042F}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Arkusz1!$B$4:$N$4</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Arkusz1!$B$9:$N$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Agents</t>
   </si>
@@ -126,19 +130,22 @@
     <t>04:18:25.301798</t>
   </si>
   <si>
-    <t>SAG KNN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sklearn KNN: </t>
-  </si>
-  <si>
-    <t>62.06896551724138 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correctness: </t>
-  </si>
-  <si>
-    <t>31.03 %</t>
+    <t>iris</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Correctness SAG KNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correctness sklearn KNN </t>
+  </si>
+  <si>
+    <t>wine-quality-white</t>
+  </si>
+  <si>
+    <t>wine-quality-red</t>
   </si>
 </sst>
 </file>
@@ -166,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -174,13 +181,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -497,14 +520,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340030AF-53A3-43F9-9F48-64255C18C249}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="14" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.90625" customWidth="1"/>
+    <col min="5" max="14" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -603,43 +629,43 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>30</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J4">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -691,64 +717,85 @@
         <v>2</v>
       </c>
       <c r="B6">
+        <v>44.83</v>
+      </c>
+      <c r="C6">
+        <v>27.59</v>
+      </c>
+      <c r="D6">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="E6">
+        <v>27.59</v>
+      </c>
+      <c r="F6">
         <v>31.03</v>
       </c>
-      <c r="C6">
-        <v>31.03</v>
-      </c>
-      <c r="D6">
-        <v>41.38</v>
-      </c>
-      <c r="E6">
-        <v>44.83</v>
-      </c>
-      <c r="F6">
-        <v>41.38</v>
-      </c>
       <c r="G6">
-        <v>44.83</v>
+        <v>37.93</v>
       </c>
       <c r="H6">
         <v>44.83</v>
       </c>
       <c r="I6">
-        <v>37.93</v>
+        <v>44.83</v>
       </c>
       <c r="J6">
+        <v>41.38</v>
+      </c>
+      <c r="K6">
+        <v>44.83</v>
+      </c>
+      <c r="L6">
+        <v>41.38</v>
+      </c>
+      <c r="M6">
         <v>31.03</v>
       </c>
-      <c r="K6">
-        <v>27.59</v>
-      </c>
-      <c r="L6">
-        <v>34.479999999999997</v>
-      </c>
-      <c r="M6">
-        <v>27.59</v>
-      </c>
       <c r="N6">
-        <v>44.83</v>
+        <v>31.03</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>34</v>
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.22</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
